--- a/Produccion_Auxiliares.xlsx
+++ b/Produccion_Auxiliares.xlsx
@@ -7,7 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="BD_Consolidado" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Astrid Rodriguez" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Julieth Obregoso" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Karen Perdomo" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Manuel Rodríguez" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +20,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +449,77 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>registros</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Julieth Obregoso</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>fecha_produccion</t>
         </is>
       </c>
@@ -502,6 +581,2671 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>estandar_h</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>FF - TM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12INSERCIÓN FÍSICA / Inserciones</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>97</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>TM(76)+PL-PP(33)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.2-ALISTAMIENTO / Ordenación de procesos de retiro</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>95</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2044669</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.2-ALISTAMIENTO / Ordenación de procesos de retiro</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>99</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PL-PL2044625(14)+UB2044192(3)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10UBICACIÓN / Dar ubicación  / proceso de retiro de acuerdo con el inventario</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>46.00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PL-PL2044625(14)+UB2044192(3)+PL-PP 2044669(29</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.12INSERCIÓN FÍSICA / Inserciones</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>154.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>cajas 120 al 131</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.1-RECEPCIÓN / Punteo, cumplimiento, consolidación de historias laborales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>98</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2050670</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.1-RECEPCIÓN / Punteo, cumplimiento, consolidación de historias laborales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2051961</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>LF - AB</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.1-RECEPCIÓN / Punteo, cumplimiento, consolidación proceso de retiro</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2052017</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.1-RECEPCIÓN / Punteo, cumplimiento, consolidación de historias laborales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>98</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2052018</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SB</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2.1-RECEPCIÓN / Punteo, cumplimiento, consolidación Inserciones </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>180.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>96</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2052014</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MG - HA</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13INSERCIÓN FÍSICA / Aseguramiento  Inserción física</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>90</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>TM-QA</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Astrid Rodriguez</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.2-TRANSFERENCIA DOCUMENTAL / Elaboración FUID inserciones  Archivo Central /  EAI/ Generar terea</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>58.00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>99</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>RESAGOS</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_produccion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>empresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>actividad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unidad_medida</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hora_inicio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hora_fin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cantidad_ejecutada</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_cumplimiento</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>caja_mantis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>observaciones</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>deber_ejecutar</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>horas_ejecutadas</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>estandar_h</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Julieth Obregoso</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Z1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.8-VALIDACION / Cedulas y registro en el documento/confirmación de procesos y novedades del ingreso de documentación</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>90</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_produccion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>empresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>actividad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unidad_medida</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hora_inicio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hora_fin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cantidad_ejecutada</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_cumplimiento</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>caja_mantis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>observaciones</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>deber_ejecutar</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>horas_ejecutadas</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>estandar_h</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.12INSERCIÓN FÍSICA / Inserciones</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>200.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.11CLASIFICACIÓN / Inserciones</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>204.00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.2-TRANSFERENCIA DOCUMENTAL / Elaboración FUID inserciones  Archivo Central /  EAI/ Generar terea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.10UBICACIÓN / Dar ubicación  / inserciones de acuerdo con el inventario</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>155.00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45965</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.10UBICACIÓN / Dar ubicación  / inserciones de acuerdo con el inventario</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>150.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>MG - CA</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.2-TRANSFERENCIA DOCUMENTAL / Elaboración FUID inserciones  Archivo Central /  EAI/ Generar terea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MG - CA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.1-TRANSFERENCIA DOCUMENTAL / Elaboración  inventario - inserciones/ Volumen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>QF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.13INSERCIÓN FÍSICA / Aseguramiento  Inserción física</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.12INSERCIÓN FÍSICA / Proceso de retiro</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>77.00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>98</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>LM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.12INSERCIÓN FÍSICA / Inserciones</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>236.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.3-ALISTAMIENTO / Ordenación de historias laborales -  física</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>98</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2050670</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.3-ALISTAMIENTO / Ordenación de historias laborales -  física</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2051961</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.3-ALISTAMIENTO / Ordenación de historias laborales -  física</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2052018</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MG - ER</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.11CLASIFICACIÓN / Inserciones</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MG - ER</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.10UBICACIÓN / Dar ubicación  / inserciones de acuerdo con el inventario</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MG - ER</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.1-TRANSFERENCIA DOCUMENTAL / Elaboración  inventario - inserciones/ Volumen</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>142.00</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>94</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MG - ER</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.2-TRANSFERENCIA DOCUMENTAL / Elaboración FUID inserciones  Archivo Central /  EAI/ Generar terea</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>42.00</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MG - ER</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.2-TRANSFERENCIA DOCUMENTAL / Elaboración FUID inserciones  Archivo Central /  EAI/ Generar terea</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>FL</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.13INSERCIÓN FÍSICA / Aseguramiento  Inserción física</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>20.00</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Karen Perdomo</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.12INSERCIÓN FÍSICA / Inserciones</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>110.00</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>98</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>resago</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>auxiliar</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fecha_produccion</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>empresa</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>actividad</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>unidad_medida</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>hora_inicio</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>hora_fin</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cantidad_ejecutada</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>porcentaje_cumplimiento</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>caja_mantis</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>observaciones</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>deber_ejecutar</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>horas_ejecutadas</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>estandar_h</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MG - SC</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.6-DIGITALIZACIÓN / Digitalización de historias laborales</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2046049</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45967</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ML</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.3-DIGITALIZACIÓN / Digitalización de inserciones</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>108.00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2050670</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MG - CQ</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.3-DIGITALIZACIÓN / Digitalización de inserciones</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2053121</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.13CLASIFICACIÓN / Organización Historias laborales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>90</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Código varia por minuto </t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.11CLASIFICACIÓN / Inserciones</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>60</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Código varia por minuto </t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.5-INSERCIÓN DIGITAL / Inserción digital  inserciones</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>76</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Código varia por minuto </t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.6-DIGITALIZACIÓN / Digitalización de historias laborales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2052898</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.4-DIGITALIZACIÓN / Digitalización de procesos de retiro</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2053072</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11CLASIFICACIÓN / Inserciones</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Código varia por minuto </t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.4-DIGITALIZACIÓN / Digitalización de procesos de retiro</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2053559</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CG</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.3-DIGITALIZACIÓN / Digitalización de inserciones</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2052898</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>FA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.3-DIGITALIZACIÓN / Digitalización de inserciones</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>87</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2053072 Código varia por minuto </t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Manuel Rodríguez</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45968</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MG - MG</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.3-DIGITALIZACIÓN / Digitalización de inserciones</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2053559</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
